--- a/CODICE/first.xlsx
+++ b/CODICE/first.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Misa\Downloads\WinPython-64bit-3.6.1.0Qt5\notebooks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Misa\Desktop\TESI 2\tesi-nuovo\CODICE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171026"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -954,7 +954,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P17" sqref="P17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -1024,162 +1026,162 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E3">
-        <v>1.9</v>
+        <v>-3.9</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I3">
         <v>-3.5</v>
       </c>
       <c r="J3">
-        <v>3.8411300000000002</v>
+        <v>3.8187700000000002</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E4">
-        <v>-3.9</v>
+        <v>-1.6</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I4">
-        <v>-3.5</v>
+        <v>-1.6</v>
       </c>
       <c r="J4">
-        <v>3.8187700000000002</v>
+        <v>3.7913299999999999</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E5">
-        <v>-3.9</v>
+        <v>-0.7</v>
       </c>
       <c r="F5" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I5">
-        <v>-3.5</v>
+        <v>-1.3</v>
       </c>
       <c r="J5">
-        <v>3.8135699999999999</v>
+        <v>3.7897799999999999</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
       </c>
       <c r="E6">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="G6" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="H6" t="s">
         <v>15</v>
       </c>
       <c r="I6">
-        <v>-3.5</v>
+        <v>-1.3</v>
       </c>
       <c r="J6">
-        <v>3.70397</v>
+        <v>3.78973</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
       </c>
       <c r="E7">
-        <v>1.9</v>
+        <v>4.2</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="G7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I7">
-        <v>-3.5</v>
+        <v>-4.5</v>
       </c>
       <c r="J7">
-        <v>3.8100100000000001</v>
+        <v>3.7879700000000001</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -1376,34 +1378,34 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D14" t="s">
         <v>12</v>
       </c>
       <c r="E14">
-        <v>-1.6</v>
+        <v>1.9</v>
       </c>
       <c r="F14" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G14" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H14" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I14">
-        <v>-1.6</v>
+        <v>-3.5</v>
       </c>
       <c r="J14">
-        <v>3.7913299999999999</v>
+        <v>3.8411300000000002</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -1504,34 +1506,34 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E18">
-        <v>-0.7</v>
+        <v>-3.9</v>
       </c>
       <c r="F18" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G18" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I18">
-        <v>-1.3</v>
+        <v>-3.5</v>
       </c>
       <c r="J18">
-        <v>3.7897799999999999</v>
+        <v>3.8135699999999999</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -1696,34 +1698,34 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="D24" t="s">
         <v>12</v>
       </c>
       <c r="E24">
-        <v>4.2</v>
+        <v>1.9</v>
       </c>
       <c r="F24" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="G24" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H24" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I24">
-        <v>-4.5</v>
+        <v>-3.5</v>
       </c>
       <c r="J24">
-        <v>3.7879700000000001</v>
+        <v>3.8100100000000001</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -1760,34 +1762,34 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>57</v>
+        <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="C26" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="D26" t="s">
         <v>12</v>
       </c>
       <c r="E26">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="F26" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="G26" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="H26" t="s">
         <v>15</v>
       </c>
       <c r="I26">
-        <v>-1.3</v>
+        <v>-3.5</v>
       </c>
       <c r="J26">
-        <v>3.78973</v>
+        <v>3.70397</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
